--- a/BOM_geary_boi.xlsx
+++ b/BOM_geary_boi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubia\Desktop\Melt-O-Tron\geary boi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD17EF-9169-4F83-A5DA-1C92EA65E7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490D955-D0F7-4F00-9685-BB09A8B84DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>BOM Geary Boi</t>
   </si>
@@ -108,6 +108,12 @@
     <t>8 tooth moons stepper is best choice 
 36STH17-1004AH(G8T) is a good alternative, but runs hotter
 other nema14 pancakes with 8 or 10 tooth gears will work as well</t>
+  </si>
+  <si>
+    <t>any standard BMG internals kit will work, got minimal woodgrain with these.</t>
+  </si>
+  <si>
+    <t>other types of heads will work, as long as they are under 2mm in height</t>
   </si>
 </sst>
 </file>
@@ -596,7 +602,7 @@
   <dimension ref="B2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +680,9 @@
       <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -714,7 +722,9 @@
       <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/BOM_geary_boi.xlsx
+++ b/BOM_geary_boi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubia\Desktop\Melt-O-Tron\geary boi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490D955-D0F7-4F00-9685-BB09A8B84DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3CC8F9-0C9C-4851-83E7-E337C118D057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>BOM Geary Boi</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>other types of heads will work, as long as they are under 2mm in height</t>
+  </si>
+  <si>
+    <t>an additonal M3x3 BHCS and M3x12SHCS are required for the low version</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,6 +311,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -312,14 +327,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -602,7 +617,7 @@
   <dimension ref="B2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +856,12 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
@@ -1099,10 +1116,10 @@
     <mergeCell ref="G10:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E13">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$D$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThanOrEqual">
       <formula>$D$5</formula>
     </cfRule>
   </conditionalFormatting>
